--- a/data/tehilim-data/33.xlsx
+++ b/data/tehilim-data/33.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="303">
   <si>
     <t>original</t>
   </si>
@@ -316,10 +316,16 @@
     <t>боятся</t>
   </si>
   <si>
-    <t>כל-ישבי-תבל</t>
-  </si>
-  <si>
-    <t>все живущие на суше</t>
+    <t>כל</t>
+  </si>
+  <si>
+    <t xml:space="preserve">все </t>
+  </si>
+  <si>
+    <t>ישבי-תבל</t>
+  </si>
+  <si>
+    <t>живущие на суше</t>
   </si>
   <si>
     <t>ח</t>
@@ -418,10 +424,16 @@
     <t>сердца его</t>
   </si>
   <si>
-    <t>לדר ודר</t>
-  </si>
-  <si>
-    <t>от поколения к поколению</t>
+    <t xml:space="preserve">לדר </t>
+  </si>
+  <si>
+    <t xml:space="preserve">от поколения </t>
+  </si>
+  <si>
+    <t>ודר</t>
+  </si>
+  <si>
+    <t>к поколению</t>
   </si>
   <si>
     <t>יא</t>
@@ -769,10 +781,16 @@
     <t>сердце наше</t>
   </si>
   <si>
-    <t>בשם קדשו</t>
-  </si>
-  <si>
-    <t>во имя святости его</t>
+    <t>בשם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">во имя </t>
+  </si>
+  <si>
+    <t>קדשו</t>
+  </si>
+  <si>
+    <t>святости его</t>
   </si>
   <si>
     <t>בטחנו</t>
@@ -908,7 +926,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -924,6 +942,10 @@
       <sz val="10.0"/>
       <color rgb="FF0D0D0D"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -946,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -965,6 +987,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2975,11 +3003,11 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="5">
-        <v>8.0</v>
+      <c r="B57" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -3008,10 +3036,10 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58" s="5" t="s">
         <v>105</v>
+      </c>
+      <c r="B58" s="5">
+        <v>8.0</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -3104,10 +3132,10 @@
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -3136,10 +3164,10 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -3202,8 +3230,8 @@
       <c r="A64" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B64" s="5">
-        <v>9.0</v>
+      <c r="B64" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -3232,10 +3260,10 @@
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>57</v>
+        <v>116</v>
+      </c>
+      <c r="B65" s="5">
+        <v>9.0</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3264,10 +3292,10 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3395,7 +3423,7 @@
         <v>123</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3424,10 +3452,10 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3458,8 +3486,8 @@
       <c r="A72" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B72" s="5">
-        <v>10.0</v>
+      <c r="B72" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3488,10 +3516,10 @@
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="B73" s="5">
+        <v>10.0</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3520,10 +3548,10 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3552,10 +3580,10 @@
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -3616,10 +3644,10 @@
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3648,7 +3676,7 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>134</v>
@@ -3714,8 +3742,8 @@
       <c r="A80" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B80" s="5">
-        <v>11.0</v>
+      <c r="B80" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -3743,11 +3771,11 @@
       <c r="Z80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B81" s="5" t="s">
+      <c r="A81" s="7" t="s">
         <v>139</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3776,10 +3804,10 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B82" s="5" t="s">
         <v>141</v>
+      </c>
+      <c r="B82" s="5">
+        <v>11.0</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -3840,10 +3868,10 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -3872,10 +3900,10 @@
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -3904,10 +3932,10 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -3936,10 +3964,10 @@
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3968,10 +3996,10 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -4000,10 +4028,10 @@
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -4032,10 +4060,10 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B90" s="5">
-        <v>12.0</v>
+        <v>153</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -4064,10 +4092,10 @@
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -4096,10 +4124,10 @@
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
+      </c>
+      <c r="B92" s="5">
+        <v>12.0</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -4128,10 +4156,10 @@
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -4258,8 +4286,8 @@
       <c r="A97" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B97" s="5">
-        <v>13.0</v>
+      <c r="B97" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4288,10 +4316,10 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -4320,10 +4348,10 @@
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B99" s="5" t="s">
         <v>167</v>
+      </c>
+      <c r="B99" s="5">
+        <v>13.0</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -4448,10 +4476,10 @@
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -4480,10 +4508,10 @@
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B104" s="5">
-        <v>14.0</v>
+        <v>176</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -4512,10 +4540,10 @@
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>176</v>
+        <v>60</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -4544,10 +4572,10 @@
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B106" s="5" t="s">
         <v>179</v>
+      </c>
+      <c r="B106" s="5">
+        <v>14.0</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -4643,7 +4671,7 @@
         <v>184</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -4672,10 +4700,10 @@
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -4704,10 +4732,10 @@
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B111" s="5">
-        <v>15.0</v>
+        <v>188</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -4736,10 +4764,10 @@
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -4768,10 +4796,10 @@
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B113" s="5" t="s">
         <v>191</v>
+      </c>
+      <c r="B113" s="5">
+        <v>15.0</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -4930,8 +4958,8 @@
       <c r="A118" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B118" s="5">
-        <v>16.0</v>
+      <c r="B118" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -4960,10 +4988,10 @@
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -4992,10 +5020,10 @@
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B120" s="5" t="s">
         <v>204</v>
+      </c>
+      <c r="B120" s="5">
+        <v>16.0</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -5154,8 +5182,8 @@
       <c r="A125" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B125" s="5">
-        <v>17.0</v>
+      <c r="B125" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -5184,10 +5212,10 @@
     </row>
     <row r="126">
       <c r="A126" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -5216,10 +5244,10 @@
     </row>
     <row r="127">
       <c r="A127" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B127" s="5" t="s">
         <v>217</v>
+      </c>
+      <c r="B127" s="5">
+        <v>17.0</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -5248,10 +5276,10 @@
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -5280,10 +5308,10 @@
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -5312,10 +5340,10 @@
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>221</v>
+        <v>19</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -5378,8 +5406,8 @@
       <c r="A132" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B132" s="5">
-        <v>18.0</v>
+      <c r="B132" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -5408,10 +5436,10 @@
     </row>
     <row r="133">
       <c r="A133" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -5440,10 +5468,10 @@
     </row>
     <row r="134">
       <c r="A134" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B134" s="5" t="s">
         <v>228</v>
+      </c>
+      <c r="B134" s="5">
+        <v>18.0</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -5570,8 +5598,8 @@
       <c r="A138" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B138" s="5">
-        <v>19.0</v>
+      <c r="B138" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -5600,10 +5628,10 @@
     </row>
     <row r="139">
       <c r="A139" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -5632,10 +5660,10 @@
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B140" s="5" t="s">
         <v>239</v>
+      </c>
+      <c r="B140" s="5">
+        <v>19.0</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -5664,10 +5692,10 @@
     </row>
     <row r="141">
       <c r="A141" s="4" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -5696,10 +5724,10 @@
     </row>
     <row r="142">
       <c r="A142" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -5728,10 +5756,10 @@
     </row>
     <row r="143">
       <c r="A143" s="4" t="s">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -5760,10 +5788,10 @@
     </row>
     <row r="144">
       <c r="A144" s="4" t="s">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -5792,10 +5820,10 @@
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B145" s="5">
-        <v>20.0</v>
+        <v>246</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -5824,10 +5852,10 @@
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -5856,10 +5884,10 @@
     </row>
     <row r="147">
       <c r="A147" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B147" s="5" t="s">
         <v>249</v>
+      </c>
+      <c r="B147" s="5">
+        <v>20.0</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -5920,10 +5948,10 @@
     </row>
     <row r="149">
       <c r="A149" s="4" t="s">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -5952,10 +5980,10 @@
     </row>
     <row r="150">
       <c r="A150" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -5984,10 +6012,10 @@
     </row>
     <row r="151">
       <c r="A151" s="4" t="s">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -6018,8 +6046,8 @@
       <c r="A152" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B152" s="5">
-        <v>21.0</v>
+      <c r="B152" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -6047,11 +6075,11 @@
       <c r="Z152" s="2"/>
     </row>
     <row r="153">
-      <c r="A153" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B153" s="5" t="s">
+      <c r="A153" s="7" t="s">
         <v>258</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -6080,10 +6108,10 @@
     </row>
     <row r="154">
       <c r="A154" s="4" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>57</v>
+        <v>261</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -6112,10 +6140,10 @@
     </row>
     <row r="155">
       <c r="A155" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
+      </c>
+      <c r="B155" s="5">
+        <v>21.0</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -6144,10 +6172,10 @@
     </row>
     <row r="156">
       <c r="A156" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -6176,10 +6204,10 @@
     </row>
     <row r="157">
       <c r="A157" s="4" t="s">
-        <v>263</v>
+        <v>56</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>264</v>
+        <v>57</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -6239,11 +6267,11 @@
       <c r="Z158" s="2"/>
     </row>
     <row r="159">
-      <c r="A159" s="6" t="s">
+      <c r="A159" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B159" s="6">
-        <v>22.0</v>
+      <c r="B159" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -6272,10 +6300,10 @@
     </row>
     <row r="160">
       <c r="A160" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -6304,10 +6332,10 @@
     </row>
     <row r="161">
       <c r="A161" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -6335,11 +6363,11 @@
       <c r="Z161" s="2"/>
     </row>
     <row r="162">
-      <c r="A162" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B162" s="5" t="s">
+      <c r="A162" s="6" t="s">
         <v>273</v>
+      </c>
+      <c r="B162" s="6">
+        <v>22.0</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -6560,10 +6588,10 @@
     </row>
     <row r="169">
       <c r="A169" s="4" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -6592,10 +6620,10 @@
     </row>
     <row r="170">
       <c r="A170" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -6624,10 +6652,10 @@
     </row>
     <row r="171">
       <c r="A171" s="4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -6656,10 +6684,10 @@
     </row>
     <row r="172">
       <c r="A172" s="4" t="s">
-        <v>290</v>
+        <v>54</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -6688,10 +6716,10 @@
     </row>
     <row r="173">
       <c r="A173" s="4" t="s">
-        <v>7</v>
+        <v>293</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -6720,10 +6748,10 @@
     </row>
     <row r="174">
       <c r="A174" s="4" t="s">
-        <v>5</v>
+        <v>293</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>6</v>
+        <v>295</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -6752,10 +6780,10 @@
     </row>
     <row r="175">
       <c r="A175" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -6784,10 +6812,10 @@
     </row>
     <row r="176">
       <c r="A176" s="4" t="s">
-        <v>295</v>
+        <v>7</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -6815,8 +6843,12 @@
       <c r="Z176" s="2"/>
     </row>
     <row r="177">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
+      <c r="A177" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -6843,8 +6875,12 @@
       <c r="Z177" s="2"/>
     </row>
     <row r="178">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
+      <c r="A178" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>300</v>
+      </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -6871,8 +6907,12 @@
       <c r="Z178" s="2"/>
     </row>
     <row r="179">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
+      <c r="A179" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -29942,6 +29982,90 @@
       <c r="Y1002" s="2"/>
       <c r="Z1002" s="2"/>
     </row>
+    <row r="1003">
+      <c r="A1003" s="2"/>
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="2"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="2"/>
+      <c r="F1003" s="2"/>
+      <c r="G1003" s="2"/>
+      <c r="H1003" s="2"/>
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2"/>
+      <c r="K1003" s="2"/>
+      <c r="L1003" s="2"/>
+      <c r="M1003" s="2"/>
+      <c r="N1003" s="2"/>
+      <c r="O1003" s="2"/>
+      <c r="P1003" s="2"/>
+      <c r="Q1003" s="2"/>
+      <c r="R1003" s="2"/>
+      <c r="S1003" s="2"/>
+      <c r="T1003" s="2"/>
+      <c r="U1003" s="2"/>
+      <c r="V1003" s="2"/>
+      <c r="W1003" s="2"/>
+      <c r="X1003" s="2"/>
+      <c r="Y1003" s="2"/>
+      <c r="Z1003" s="2"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2"/>
+      <c r="B1004" s="2"/>
+      <c r="C1004" s="2"/>
+      <c r="D1004" s="2"/>
+      <c r="E1004" s="2"/>
+      <c r="F1004" s="2"/>
+      <c r="G1004" s="2"/>
+      <c r="H1004" s="2"/>
+      <c r="I1004" s="2"/>
+      <c r="J1004" s="2"/>
+      <c r="K1004" s="2"/>
+      <c r="L1004" s="2"/>
+      <c r="M1004" s="2"/>
+      <c r="N1004" s="2"/>
+      <c r="O1004" s="2"/>
+      <c r="P1004" s="2"/>
+      <c r="Q1004" s="2"/>
+      <c r="R1004" s="2"/>
+      <c r="S1004" s="2"/>
+      <c r="T1004" s="2"/>
+      <c r="U1004" s="2"/>
+      <c r="V1004" s="2"/>
+      <c r="W1004" s="2"/>
+      <c r="X1004" s="2"/>
+      <c r="Y1004" s="2"/>
+      <c r="Z1004" s="2"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2"/>
+      <c r="B1005" s="2"/>
+      <c r="C1005" s="2"/>
+      <c r="D1005" s="2"/>
+      <c r="E1005" s="2"/>
+      <c r="F1005" s="2"/>
+      <c r="G1005" s="2"/>
+      <c r="H1005" s="2"/>
+      <c r="I1005" s="2"/>
+      <c r="J1005" s="2"/>
+      <c r="K1005" s="2"/>
+      <c r="L1005" s="2"/>
+      <c r="M1005" s="2"/>
+      <c r="N1005" s="2"/>
+      <c r="O1005" s="2"/>
+      <c r="P1005" s="2"/>
+      <c r="Q1005" s="2"/>
+      <c r="R1005" s="2"/>
+      <c r="S1005" s="2"/>
+      <c r="T1005" s="2"/>
+      <c r="U1005" s="2"/>
+      <c r="V1005" s="2"/>
+      <c r="W1005" s="2"/>
+      <c r="X1005" s="2"/>
+      <c r="Y1005" s="2"/>
+      <c r="Z1005" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
